--- a/db/sources/stats/stats_fangraphs_batting_ytd_2023.xlsx
+++ b/db/sources/stats/stats_fangraphs_batting_ytd_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wrburgess/Projects/research/acuna/db/sources/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{509103A9-00C9-1B43-8319-04CAF1795049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F57D7-1177-7542-9BA1-FE6BE9D40FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{A52196FC-1369-BF4C-A6E7-953A1394B710}"/>
+    <workbookView xWindow="46280" yWindow="2300" windowWidth="27160" windowHeight="16440" xr2:uid="{A52196FC-1369-BF4C-A6E7-953A1394B710}"/>
   </bookViews>
   <sheets>
     <sheet name="stats_fangraphs_batting_2023" sheetId="1" r:id="rId1"/>
@@ -10717,9 +10717,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE21AAE6-FA3C-1149-83FD-7D7B9DCC4EB3}">
   <dimension ref="A1:AK656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="35" max="35" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
